--- a/forecast_summary_B07GBM3M88.xlsx
+++ b/forecast_summary_B07GBM3M88.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>65.03800454367942</v>
       </c>
       <c r="D2" t="n">
-        <v>82.08679380705877</v>
+        <v>81.82076036375852</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>185.4908933062266</v>
       </c>
       <c r="D3" t="n">
-        <v>203.5120440293058</v>
+        <v>203.3091586067576</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -547,6 +555,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>319.8085459176792</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1713858220449</v>
+        <v>337.4493059397288</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>386.6079601831847</v>
       </c>
       <c r="D5" t="n">
-        <v>403.3313175308447</v>
+        <v>404.3376498881298</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>332.1181285159375</v>
       </c>
       <c r="D6" t="n">
-        <v>350.3697467669206</v>
+        <v>350.8884838476881</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>180.0220566985104</v>
       </c>
       <c r="D7" t="n">
-        <v>198.0931699538689</v>
+        <v>197.9229677980708</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -691,6 +711,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>17.48778548657139</v>
       </c>
       <c r="D8" t="n">
-        <v>35.39702434202632</v>
+        <v>35.08372480487322</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-73.63835339031345</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.82583068379012</v>
+        <v>-55.9197257678638</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -763,6 +789,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-76.70620275460831</v>
       </c>
       <c r="D10" t="n">
-        <v>-60.10026274480286</v>
+        <v>-58.99331765441121</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-37.48536928568848</v>
       </c>
       <c r="D11" t="n">
-        <v>-20.67818656932242</v>
+        <v>-20.35060910865858</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-9.564315257660709</v>
       </c>
       <c r="D12" t="n">
-        <v>7.926895145693881</v>
+        <v>7.80151324276476</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -871,6 +906,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-7.70448212687582</v>
       </c>
       <c r="D13" t="n">
-        <v>9.66392852516209</v>
+        <v>10.27334877074852</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -907,6 +945,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-11.53201595529973</v>
       </c>
       <c r="D14" t="n">
-        <v>5.647342416186515</v>
+        <v>6.712368984044229</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-2.99171809937079</v>
       </c>
       <c r="D15" t="n">
-        <v>14.26102515456097</v>
+        <v>15.44581448395857</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>11.04696943133351</v>
       </c>
       <c r="D16" t="n">
-        <v>27.82391658991801</v>
+        <v>29.58563624285982</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>13.0454827254231</v>
       </c>
       <c r="D17" t="n">
-        <v>30.73517022072434</v>
+        <v>31.48908403017472</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.8726306528071096</v>
       </c>
       <c r="D18" t="n">
-        <v>20.50818706943925</v>
+        <v>19.67477296075588</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-9.45774067695907</v>
       </c>
       <c r="D19" t="n">
-        <v>8.828548215130795</v>
+        <v>7.400880717182337</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-5.48581557746496</v>
       </c>
       <c r="D20" t="n">
-        <v>11.0545778244835</v>
+        <v>11.31402691997426</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>5.914067992217511</v>
       </c>
       <c r="D21" t="n">
-        <v>22.90708926215885</v>
+        <v>22.72298666812036</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>GC-WB1733D-I</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
